--- a/biology/Médecine/Sparsentan/Sparsentan.xlsx
+++ b/biology/Médecine/Sparsentan/Sparsentan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sparsentan est un médicament utilisé pour le traitement de la néphropathie à IgA. Il s'agit d'un antagoniste des récepteurs de l'endothéline et des récepteurs de l'angiotensine II. 
 Le sparsentan est commercialisé par Travere Therapeutics.
-Il a été approuvé aux États-Unis pour usage médical par la Food and Drug Administration en février 2023[1].
+Il a été approuvé aux États-Unis pour usage médical par la Food and Drug Administration en février 2023.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sparsentan a montré dans l'essai PROTECT une réduction significative de la protéinurie à 36 semaines dans la néphropathie à IgA comparativement à l'irbésartan [2].
-Dans la hyalinose segmentaire et focale, il permet une diminution de la protéinurie plus importante par rapport à l'irbesartan mais sans effet sur la fonction rénale[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sparsentan a montré dans l'essai PROTECT une réduction significative de la protéinurie à 36 semaines dans la néphropathie à IgA comparativement à l'irbésartan .
+Dans la hyalinose segmentaire et focale, il permet une diminution de la protéinurie plus importante par rapport à l'irbesartan mais sans effet sur la fonction rénale.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des études animales ayant montré un risque de malformations fœtales, le sparsentan est contre-indiqué en cas de grossesse et nécessite l'utilisation d'une méthode contraceptive le temps du traitement. 
 Il existe un risque d'hépatotoxicité.
-L'hyperkaliémie, l'insuffisance rénale aiguë, l'hypotension et les œdèmes sont des effets secondaires du sparsentan[4].
+L'hyperkaliémie, l'insuffisance rénale aiguë, l'hypotension et les œdèmes sont des effets secondaires du sparsentan.
 </t>
         </is>
       </c>
